--- a/kodovani/Q74_kod.xlsx
+++ b/kodovani/Q74_kod.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annamatejkova/Desktop/projekt alkohol/Nepiti/codebooky/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annamatejkova/Desktop/projekt alkohol/Nepiti/kodovani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD94F34-8126-4948-BD88-8E3DB7B23CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943D91B-0A8B-E14E-933B-D791957924E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="940" windowWidth="14480" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="272">
   <si>
     <t>respondent_id_internal</t>
   </si>
@@ -819,6 +819,24 @@
   </si>
   <si>
     <t>doma</t>
+  </si>
+  <si>
+    <t>jiné</t>
+  </si>
+  <si>
+    <t>ostatní</t>
+  </si>
+  <si>
+    <t>sportovní utkání</t>
+  </si>
+  <si>
+    <t>ooslava</t>
+  </si>
+  <si>
+    <t>projít po jídle</t>
+  </si>
+  <si>
+    <t>koncet/festival</t>
   </si>
 </sst>
 </file>
@@ -916,14 +934,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -931,8 +948,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1239,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C489" sqref="C489"/>
+    <sheetView tabSelected="1" topLeftCell="A888" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B927" sqref="B927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1365,14 +1380,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>21780791</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1505,14 +1520,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>21782304</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1610,14 +1625,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>21782507</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1794,7 +1809,7 @@
       <c r="A63">
         <v>21783316</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1802,7 +1817,7 @@
       <c r="A64">
         <v>21783335</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1810,18 +1825,18 @@
       <c r="A65">
         <v>21783424</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+      <c r="B65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
         <v>21783427</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1863,14 +1878,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
         <v>21783915</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1998,14 +2013,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
+    <row r="86" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <v>21787738</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2017,14 +2032,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
+    <row r="88" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <v>21787785</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2103,33 +2118,33 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
+    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
         <v>21788065</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
+    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
         <v>21788099</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
         <v>21788129</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2269,7 +2284,7 @@
       <c r="A116">
         <v>21788678</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2277,7 +2292,7 @@
       <c r="A117">
         <v>21788684</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2285,7 +2300,7 @@
       <c r="A118">
         <v>21788686</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2326,7 +2341,7 @@
       <c r="A122">
         <v>21788758</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2334,7 +2349,7 @@
       <c r="A123">
         <v>21788777</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2342,7 +2357,7 @@
       <c r="A124">
         <v>21788810</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2350,7 +2365,7 @@
       <c r="A125">
         <v>21788839</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2358,7 +2373,7 @@
       <c r="A126">
         <v>21788862</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2366,7 +2381,7 @@
       <c r="A127">
         <v>21788863</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2396,7 +2411,7 @@
       <c r="A130">
         <v>21789000</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2404,18 +2419,18 @@
       <c r="A131">
         <v>21789019</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
         <v>21789036</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2556,14 +2571,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="9">
+    <row r="149" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="8">
         <v>21789737</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2698,14 +2713,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="10">
+    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="9">
         <v>21792651</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2929,19 +2944,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8">
+    <row r="193" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="7">
         <v>21792768</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
+    <row r="194" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="7">
         <v>21792773</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3036,25 +3051,25 @@
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="10">
+    <row r="206" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="9">
         <v>21792860</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="10">
+    <row r="207" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="9">
         <v>21792864</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3163,14 +3178,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="11">
+    <row r="220" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="10">
         <v>21792926</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3266,14 +3281,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="6">
+    <row r="231" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
         <v>21792974</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3312,11 +3327,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="8">
+    <row r="236" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="7">
         <v>21793030</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3336,14 +3351,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
+    <row r="239" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="6">
         <v>21793064</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3409,14 +3424,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="7">
+    <row r="247" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="6">
         <v>21793123</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3508,14 +3523,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="7">
+    <row r="259" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="6">
         <v>21793233</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3597,14 +3612,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="9">
+    <row r="269" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="8">
         <v>21793372</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3780,25 +3795,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="6">
+    <row r="290" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
         <v>21793596</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C290" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="10">
+    <row r="291" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="9">
         <v>21793602</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C291" s="10" t="s">
+      <c r="C291" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3842,14 +3857,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="10">
+    <row r="297" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="9">
         <v>21793656</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C297" s="10" t="s">
+      <c r="C297" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3880,11 +3895,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="8">
+    <row r="301" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="7">
         <v>21793688</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3949,7 +3964,7 @@
       <c r="A308">
         <v>21793792</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3957,7 +3972,7 @@
       <c r="A309">
         <v>21793800</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3965,29 +3980,29 @@
       <c r="A310">
         <v>21793806</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="12">
+      <c r="B310" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="9">
         <v>21793821</v>
       </c>
-      <c r="B311" s="12" t="s">
+      <c r="B311" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C311" s="12" t="s">
+      <c r="C311" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="5">
+    <row r="312" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="4">
         <v>21793835</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="B312" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C312" s="5" t="s">
+      <c r="C312" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3995,7 +4010,7 @@
       <c r="A313">
         <v>21793837</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" t="s">
         <v>259</v>
       </c>
       <c r="C313" t="s">
@@ -4006,7 +4021,7 @@
       <c r="A314">
         <v>21793852</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4014,7 +4029,7 @@
       <c r="A315">
         <v>21793920</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4022,18 +4037,18 @@
       <c r="A316">
         <v>21793925</v>
       </c>
-      <c r="B316" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="6">
+      <c r="B316" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
         <v>21793916</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B317" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C317" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4041,7 +4056,7 @@
       <c r="A318">
         <v>21793941</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" t="s">
         <v>259</v>
       </c>
       <c r="C318" t="s">
@@ -4052,7 +4067,7 @@
       <c r="A319">
         <v>21793952</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4060,7 +4075,7 @@
       <c r="A320">
         <v>21793951</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4068,7 +4083,7 @@
       <c r="A321">
         <v>21793955</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4076,7 +4091,7 @@
       <c r="A322">
         <v>21793962</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4084,18 +4099,18 @@
       <c r="A323">
         <v>21793964</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" t="s">
         <v>259</v>
       </c>
       <c r="C323" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="8">
+    <row r="324" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="7">
         <v>21794005</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4103,7 +4118,7 @@
       <c r="A325">
         <v>21794015</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4122,7 +4137,7 @@
       <c r="A327">
         <v>21794026</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4130,7 +4145,7 @@
       <c r="A328">
         <v>21794031</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4171,7 +4186,7 @@
       <c r="A332">
         <v>21794032</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4179,7 +4194,7 @@
       <c r="A333">
         <v>21794099</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4187,7 +4202,7 @@
       <c r="A334">
         <v>21794105</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4195,7 +4210,7 @@
       <c r="A335">
         <v>21794111</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4203,7 +4218,7 @@
       <c r="A336">
         <v>21794112</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4233,7 +4248,7 @@
       <c r="A339">
         <v>21794132</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4256,11 +4271,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="8">
+    <row r="342" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="7">
         <v>21794161</v>
       </c>
-      <c r="C342" s="8" t="s">
+      <c r="C342" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4268,7 +4283,7 @@
       <c r="A343">
         <v>21794166</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="B343" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4276,7 +4291,7 @@
       <c r="A344">
         <v>21794199</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B344" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4284,18 +4299,18 @@
       <c r="A345">
         <v>21794203</v>
       </c>
-      <c r="B345" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="13">
+      <c r="B345" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="6">
         <v>21794205</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="B346" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C346" s="13" t="s">
+      <c r="C346" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4303,7 +4318,7 @@
       <c r="A347">
         <v>21794207</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B347" t="s">
         <v>259</v>
       </c>
       <c r="C347" t="s">
@@ -4314,7 +4329,7 @@
       <c r="A348">
         <v>21794211</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4322,7 +4337,7 @@
       <c r="A349">
         <v>21794215</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4341,15 +4356,15 @@
       <c r="A351">
         <v>21794230</v>
       </c>
-      <c r="B351" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="8">
+      <c r="B351" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="7">
         <v>21794245</v>
       </c>
-      <c r="C352" s="8" t="s">
+      <c r="C352" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4357,7 +4372,7 @@
       <c r="A353">
         <v>21794250</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4365,15 +4380,15 @@
       <c r="A354">
         <v>21794257</v>
       </c>
-      <c r="B354" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="8">
+      <c r="B354" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="7">
         <v>21794264</v>
       </c>
-      <c r="C355" s="8" t="s">
+      <c r="C355" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4381,7 +4396,7 @@
       <c r="A356">
         <v>21794303</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4389,7 +4404,7 @@
       <c r="A357">
         <v>21794311</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4397,7 +4412,7 @@
       <c r="A358">
         <v>21794315</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B358" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4416,7 +4431,7 @@
       <c r="A360">
         <v>21794347</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" t="s">
         <v>170</v>
       </c>
       <c r="C360" t="s">
@@ -4427,7 +4442,7 @@
       <c r="A361">
         <v>21794353</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B361" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4435,7 +4450,7 @@
       <c r="A362">
         <v>21794354</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B362" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4443,7 +4458,7 @@
       <c r="A363">
         <v>21794357</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B363" t="s">
         <v>42</v>
       </c>
       <c r="C363" t="s">
@@ -4454,7 +4469,7 @@
       <c r="A364">
         <v>21794364</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B364" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4462,7 +4477,7 @@
       <c r="A365">
         <v>21794371</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B365" t="s">
         <v>42</v>
       </c>
       <c r="C365" t="s">
@@ -4473,7 +4488,7 @@
       <c r="A366">
         <v>21794372</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B366" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4481,7 +4496,7 @@
       <c r="A367">
         <v>21794386</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B367" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4489,18 +4504,18 @@
       <c r="A368">
         <v>21794390</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B368" t="s">
         <v>42</v>
       </c>
       <c r="C368" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="369" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="8">
+    <row r="369" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="7">
         <v>21794397</v>
       </c>
-      <c r="C369" s="8" t="s">
+      <c r="C369" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4508,7 +4523,7 @@
       <c r="A370">
         <v>21794407</v>
       </c>
-      <c r="B370" s="4" t="s">
+      <c r="B370" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4516,7 +4531,7 @@
       <c r="A371">
         <v>21794431</v>
       </c>
-      <c r="B371" s="4" t="s">
+      <c r="B371" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4524,7 +4539,7 @@
       <c r="A372">
         <v>21794451</v>
       </c>
-      <c r="B372" s="4" t="s">
+      <c r="B372" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4532,7 +4547,7 @@
       <c r="A373">
         <v>21794454</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B373" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4540,7 +4555,7 @@
       <c r="A374">
         <v>21794466</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="B374" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4548,7 +4563,7 @@
       <c r="A375">
         <v>21794474</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="B375" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4556,7 +4571,7 @@
       <c r="A376">
         <v>21794487</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="B376" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4564,7 +4579,7 @@
       <c r="A377">
         <v>21794500</v>
       </c>
-      <c r="B377" s="4" t="s">
+      <c r="B377" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4572,7 +4587,7 @@
       <c r="A378">
         <v>21794520</v>
       </c>
-      <c r="B378" s="4" t="s">
+      <c r="B378" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4580,7 +4595,7 @@
       <c r="A379">
         <v>21794531</v>
       </c>
-      <c r="B379" s="4" t="s">
+      <c r="B379" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4588,7 +4603,7 @@
       <c r="A380">
         <v>21794557</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="B380" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4596,31 +4611,31 @@
       <c r="A381">
         <v>21794582</v>
       </c>
-      <c r="B381" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="8">
+      <c r="B381" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="7">
         <v>21794586</v>
       </c>
-      <c r="C382" s="8" t="s">
+      <c r="C382" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="383" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="8">
+    <row r="383" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="7">
         <v>21794589</v>
       </c>
-      <c r="C383" s="8" t="s">
+      <c r="C383" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="384" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="8">
+    <row r="384" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="7">
         <v>21794598</v>
       </c>
-      <c r="C384" s="8" t="s">
+      <c r="C384" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4710,11 +4725,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="395" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="8">
+    <row r="395" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="7">
         <v>21794776</v>
       </c>
-      <c r="C395" s="8" t="s">
+      <c r="C395" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4820,11 +4835,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="408" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="8">
+    <row r="408" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="7">
         <v>21794927</v>
       </c>
-      <c r="C408" s="8" t="s">
+      <c r="C408" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4882,11 +4897,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="415" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="8">
+    <row r="415" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="7">
         <v>21795029</v>
       </c>
-      <c r="C415" s="8" t="s">
+      <c r="C415" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5276,11 +5291,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="459" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="8">
+    <row r="459" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="7">
         <v>21797325</v>
       </c>
-      <c r="C459" s="8" t="s">
+      <c r="C459" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5359,11 +5374,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="469" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="8">
+    <row r="469" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="7">
         <v>21798299</v>
       </c>
-      <c r="C469" s="8" t="s">
+      <c r="C469" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5375,11 +5390,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="471" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="8">
+    <row r="471" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="7">
         <v>21798343</v>
       </c>
-      <c r="C471" s="8" t="s">
+      <c r="C471" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5398,7 +5413,7 @@
       <c r="A473">
         <v>21798348</v>
       </c>
-      <c r="B473" s="4" t="s">
+      <c r="B473" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5477,11 +5492,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="483" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="8">
+    <row r="483" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="7">
         <v>21798638</v>
       </c>
-      <c r="C483" s="8" t="s">
+      <c r="C483" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5532,6 +5547,9 @@
       <c r="A489">
         <v>21798655</v>
       </c>
+      <c r="B489" t="s">
+        <v>42</v>
+      </c>
       <c r="C489" t="s">
         <v>116</v>
       </c>
@@ -5540,6 +5558,9 @@
       <c r="A490">
         <v>21798658</v>
       </c>
+      <c r="B490" t="s">
+        <v>42</v>
+      </c>
       <c r="C490" t="s">
         <v>117</v>
       </c>
@@ -5548,36 +5569,57 @@
       <c r="A491">
         <v>21798660</v>
       </c>
+      <c r="B491" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>21798662</v>
       </c>
+      <c r="B492" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>21798663</v>
       </c>
+      <c r="B493" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>21798665</v>
       </c>
+      <c r="B494" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>21798668</v>
       </c>
+      <c r="B495" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>21798671</v>
       </c>
+      <c r="B496" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>21798685</v>
       </c>
+      <c r="B497" t="s">
+        <v>261</v>
+      </c>
       <c r="C497" t="s">
         <v>118</v>
       </c>
@@ -5586,6 +5628,9 @@
       <c r="A498">
         <v>21798686</v>
       </c>
+      <c r="B498" t="s">
+        <v>260</v>
+      </c>
       <c r="C498" t="s">
         <v>119</v>
       </c>
@@ -5594,26 +5639,41 @@
       <c r="A499">
         <v>21798687</v>
       </c>
+      <c r="B499" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>21798689</v>
       </c>
+      <c r="B500" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>21798693</v>
       </c>
+      <c r="B501" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>21798698</v>
       </c>
+      <c r="B502" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>21798694</v>
       </c>
+      <c r="B503" t="s">
+        <v>42</v>
+      </c>
       <c r="C503" t="s">
         <v>120</v>
       </c>
@@ -5622,6 +5682,9 @@
       <c r="A504">
         <v>21798696</v>
       </c>
+      <c r="B504" t="s">
+        <v>259</v>
+      </c>
       <c r="C504" t="s">
         <v>121</v>
       </c>
@@ -5630,11 +5693,17 @@
       <c r="A505">
         <v>21798699</v>
       </c>
+      <c r="B505" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>21798704</v>
       </c>
+      <c r="B506" t="s">
+        <v>42</v>
+      </c>
       <c r="C506" t="s">
         <v>8</v>
       </c>
@@ -5643,6 +5712,9 @@
       <c r="A507">
         <v>21798706</v>
       </c>
+      <c r="B507" t="s">
+        <v>42</v>
+      </c>
       <c r="C507" t="s">
         <v>122</v>
       </c>
@@ -5651,11 +5723,17 @@
       <c r="A508">
         <v>21798708</v>
       </c>
+      <c r="B508" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>21798709</v>
       </c>
+      <c r="B509" t="s">
+        <v>259</v>
+      </c>
       <c r="C509" t="s">
         <v>123</v>
       </c>
@@ -5664,21 +5742,33 @@
       <c r="A510">
         <v>21798713</v>
       </c>
+      <c r="B510" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>21798725</v>
       </c>
+      <c r="B511" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>21798726</v>
       </c>
+      <c r="B512" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>21798728</v>
       </c>
+      <c r="B513" t="s">
+        <v>261</v>
+      </c>
       <c r="C513" t="s">
         <v>124</v>
       </c>
@@ -5687,6 +5777,9 @@
       <c r="A514">
         <v>21798730</v>
       </c>
+      <c r="B514" t="s">
+        <v>42</v>
+      </c>
       <c r="C514" t="s">
         <v>125</v>
       </c>
@@ -5695,11 +5788,17 @@
       <c r="A515">
         <v>21798732</v>
       </c>
+      <c r="B515" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>21798733</v>
       </c>
+      <c r="B516" t="s">
+        <v>261</v>
+      </c>
       <c r="C516" t="s">
         <v>126</v>
       </c>
@@ -5708,36 +5807,57 @@
       <c r="A517">
         <v>21798735</v>
       </c>
+      <c r="B517" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>21798736</v>
       </c>
+      <c r="B518" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>21798739</v>
       </c>
+      <c r="B519" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>21798743</v>
       </c>
+      <c r="B520" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>21798746</v>
       </c>
+      <c r="B521" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>21798747</v>
       </c>
+      <c r="B522" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>21798749</v>
       </c>
+      <c r="B523" t="s">
+        <v>261</v>
+      </c>
       <c r="C523" t="s">
         <v>127</v>
       </c>
@@ -5746,26 +5866,41 @@
       <c r="A524">
         <v>21798754</v>
       </c>
+      <c r="B524" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>21798757</v>
       </c>
+      <c r="B525" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>21798759</v>
       </c>
+      <c r="B526" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>21798748</v>
       </c>
+      <c r="B527" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>21798760</v>
       </c>
+      <c r="B528" t="s">
+        <v>259</v>
+      </c>
       <c r="C528" t="s">
         <v>128</v>
       </c>
@@ -5774,6 +5909,9 @@
       <c r="A529">
         <v>21798763</v>
       </c>
+      <c r="B529" t="s">
+        <v>267</v>
+      </c>
       <c r="C529" t="s">
         <v>129</v>
       </c>
@@ -5782,6 +5920,9 @@
       <c r="A530">
         <v>21798766</v>
       </c>
+      <c r="B530" t="s">
+        <v>42</v>
+      </c>
       <c r="C530" t="s">
         <v>130</v>
       </c>
@@ -5790,6 +5931,9 @@
       <c r="A531">
         <v>21798768</v>
       </c>
+      <c r="B531" t="s">
+        <v>259</v>
+      </c>
       <c r="C531" t="s">
         <v>131</v>
       </c>
@@ -5798,46 +5942,73 @@
       <c r="A532">
         <v>21798773</v>
       </c>
+      <c r="B532" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>21798770</v>
       </c>
+      <c r="B533" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>21798774</v>
       </c>
+      <c r="B534" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>21798777</v>
       </c>
+      <c r="B535" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>21798779</v>
       </c>
+      <c r="B536" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>21798790</v>
       </c>
+      <c r="B537" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>21798789</v>
       </c>
+      <c r="B538" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>21798795</v>
       </c>
+      <c r="B539" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>21798800</v>
       </c>
+      <c r="B540" t="s">
+        <v>259</v>
+      </c>
       <c r="C540" t="s">
         <v>132</v>
       </c>
@@ -5846,11 +6017,17 @@
       <c r="A541">
         <v>21798803</v>
       </c>
+      <c r="B541" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>21798813</v>
       </c>
+      <c r="B542" t="s">
+        <v>42</v>
+      </c>
       <c r="C542" t="s">
         <v>133</v>
       </c>
@@ -5859,6 +6036,9 @@
       <c r="A543">
         <v>21798817</v>
       </c>
+      <c r="B543" t="s">
+        <v>42</v>
+      </c>
       <c r="C543" t="s">
         <v>134</v>
       </c>
@@ -5867,6 +6047,9 @@
       <c r="A544">
         <v>21798827</v>
       </c>
+      <c r="B544" t="s">
+        <v>42</v>
+      </c>
       <c r="C544" t="s">
         <v>31</v>
       </c>
@@ -5875,6 +6058,9 @@
       <c r="A545">
         <v>21798831</v>
       </c>
+      <c r="B545" t="s">
+        <v>268</v>
+      </c>
       <c r="C545" t="s">
         <v>109</v>
       </c>
@@ -5883,11 +6069,17 @@
       <c r="A546">
         <v>21798835</v>
       </c>
+      <c r="B546" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>21798837</v>
       </c>
+      <c r="B547" t="s">
+        <v>42</v>
+      </c>
       <c r="C547" t="s">
         <v>135</v>
       </c>
@@ -5896,6 +6088,9 @@
       <c r="A548">
         <v>21798844</v>
       </c>
+      <c r="B548" t="s">
+        <v>259</v>
+      </c>
       <c r="C548" t="s">
         <v>136</v>
       </c>
@@ -5904,6 +6099,9 @@
       <c r="A549">
         <v>21798846</v>
       </c>
+      <c r="B549" t="s">
+        <v>261</v>
+      </c>
       <c r="C549" t="s">
         <v>137</v>
       </c>
@@ -5912,11 +6110,17 @@
       <c r="A550">
         <v>21798848</v>
       </c>
+      <c r="B550" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>21798856</v>
       </c>
+      <c r="B551" t="s">
+        <v>259</v>
+      </c>
       <c r="C551" t="s">
         <v>138</v>
       </c>
@@ -5925,11 +6129,17 @@
       <c r="A552">
         <v>21798874</v>
       </c>
+      <c r="B552" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>21798875</v>
       </c>
+      <c r="B553" t="s">
+        <v>42</v>
+      </c>
       <c r="C553" t="s">
         <v>139</v>
       </c>
@@ -5938,11 +6148,17 @@
       <c r="A554">
         <v>21798877</v>
       </c>
+      <c r="B554" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>21798881</v>
       </c>
+      <c r="B555" t="s">
+        <v>42</v>
+      </c>
       <c r="C555" t="s">
         <v>8</v>
       </c>
@@ -5951,16 +6167,25 @@
       <c r="A556">
         <v>21798883</v>
       </c>
+      <c r="B556" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>21798884</v>
       </c>
+      <c r="B557" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>21798893</v>
       </c>
+      <c r="B558" t="s">
+        <v>42</v>
+      </c>
       <c r="C558" t="s">
         <v>14</v>
       </c>
@@ -5969,31 +6194,49 @@
       <c r="A559">
         <v>21798900</v>
       </c>
+      <c r="B559" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>21798905</v>
       </c>
+      <c r="B560" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>21798911</v>
       </c>
+      <c r="B561" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>21798913</v>
       </c>
+      <c r="B562" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>21798922</v>
       </c>
+      <c r="B563" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>21798927</v>
       </c>
+      <c r="B564" t="s">
+        <v>42</v>
+      </c>
       <c r="C564" t="s">
         <v>140</v>
       </c>
@@ -6002,6 +6245,9 @@
       <c r="A565">
         <v>21798933</v>
       </c>
+      <c r="B565" t="s">
+        <v>42</v>
+      </c>
       <c r="C565" t="s">
         <v>141</v>
       </c>
@@ -6010,6 +6256,9 @@
       <c r="A566">
         <v>21798936</v>
       </c>
+      <c r="B566" t="s">
+        <v>42</v>
+      </c>
       <c r="C566" t="s">
         <v>142</v>
       </c>
@@ -6018,6 +6267,9 @@
       <c r="A567">
         <v>21798938</v>
       </c>
+      <c r="B567" t="s">
+        <v>42</v>
+      </c>
       <c r="C567" t="s">
         <v>143</v>
       </c>
@@ -6026,31 +6278,49 @@
       <c r="A568">
         <v>21798962</v>
       </c>
+      <c r="B568" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>21798965</v>
       </c>
+      <c r="B569" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>21798968</v>
       </c>
+      <c r="B570" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>21798974</v>
       </c>
+      <c r="B571" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>21798976</v>
       </c>
+      <c r="B572" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>21798979</v>
       </c>
+      <c r="B573" t="s">
+        <v>269</v>
+      </c>
       <c r="C573" t="s">
         <v>37</v>
       </c>
@@ -6059,6 +6329,9 @@
       <c r="A574">
         <v>21798995</v>
       </c>
+      <c r="B574" t="s">
+        <v>259</v>
+      </c>
       <c r="C574" t="s">
         <v>144</v>
       </c>
@@ -6067,16 +6340,25 @@
       <c r="A575">
         <v>21798996</v>
       </c>
+      <c r="B575" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>21799003</v>
       </c>
+      <c r="B576" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>21799007</v>
       </c>
+      <c r="B577" t="s">
+        <v>261</v>
+      </c>
       <c r="C577" t="s">
         <v>145</v>
       </c>
@@ -6085,16 +6367,25 @@
       <c r="A578">
         <v>21799020</v>
       </c>
+      <c r="B578" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>21799045</v>
       </c>
+      <c r="B579" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>21799046</v>
       </c>
+      <c r="B580" t="s">
+        <v>259</v>
+      </c>
       <c r="C580" t="s">
         <v>146</v>
       </c>
@@ -6103,6 +6394,9 @@
       <c r="A581">
         <v>21799043</v>
       </c>
+      <c r="B581" t="s">
+        <v>259</v>
+      </c>
       <c r="C581" t="s">
         <v>147</v>
       </c>
@@ -6111,11 +6405,17 @@
       <c r="A582">
         <v>21799057</v>
       </c>
+      <c r="B582" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>21799059</v>
       </c>
+      <c r="B583" t="s">
+        <v>259</v>
+      </c>
       <c r="C583" t="s">
         <v>148</v>
       </c>
@@ -6124,21 +6424,33 @@
       <c r="A584">
         <v>21799070</v>
       </c>
+      <c r="B584" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>21799075</v>
       </c>
+      <c r="B585" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>21799076</v>
       </c>
+      <c r="B586" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>21799091</v>
       </c>
+      <c r="B587" t="s">
+        <v>42</v>
+      </c>
       <c r="C587" t="s">
         <v>149</v>
       </c>
@@ -6147,16 +6459,25 @@
       <c r="A588">
         <v>21799100</v>
       </c>
+      <c r="B588" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>21799109</v>
       </c>
+      <c r="B589" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>21799113</v>
       </c>
+      <c r="B590" t="s">
+        <v>42</v>
+      </c>
       <c r="C590" t="s">
         <v>31</v>
       </c>
@@ -6165,6 +6486,9 @@
       <c r="A591">
         <v>21799119</v>
       </c>
+      <c r="B591" t="s">
+        <v>259</v>
+      </c>
       <c r="C591" t="s">
         <v>150</v>
       </c>
@@ -6173,16 +6497,25 @@
       <c r="A592">
         <v>21799121</v>
       </c>
+      <c r="B592" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>21799124</v>
       </c>
+      <c r="B593" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>21799126</v>
       </c>
+      <c r="B594" t="s">
+        <v>42</v>
+      </c>
       <c r="C594" t="s">
         <v>151</v>
       </c>
@@ -6191,6 +6524,9 @@
       <c r="A595">
         <v>21799132</v>
       </c>
+      <c r="B595" t="s">
+        <v>259</v>
+      </c>
       <c r="C595" t="s">
         <v>152</v>
       </c>
@@ -6199,6 +6535,9 @@
       <c r="A596">
         <v>21799164</v>
       </c>
+      <c r="B596" t="s">
+        <v>261</v>
+      </c>
       <c r="C596" t="s">
         <v>153</v>
       </c>
@@ -6207,6 +6546,9 @@
       <c r="A597">
         <v>21799168</v>
       </c>
+      <c r="B597" t="s">
+        <v>259</v>
+      </c>
       <c r="C597" t="s">
         <v>154</v>
       </c>
@@ -6215,16 +6557,25 @@
       <c r="A598">
         <v>21799177</v>
       </c>
+      <c r="B598" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>21799180</v>
       </c>
+      <c r="B599" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>21799184</v>
       </c>
+      <c r="B600" t="s">
+        <v>42</v>
+      </c>
       <c r="C600" t="s">
         <v>155</v>
       </c>
@@ -6233,6 +6584,9 @@
       <c r="A601">
         <v>21799205</v>
       </c>
+      <c r="B601" t="s">
+        <v>42</v>
+      </c>
       <c r="C601" t="s">
         <v>51</v>
       </c>
@@ -6241,21 +6595,33 @@
       <c r="A602">
         <v>21799225</v>
       </c>
+      <c r="B602" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>21799233</v>
       </c>
+      <c r="B603" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>21799237</v>
       </c>
+      <c r="B604" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>21799240</v>
       </c>
+      <c r="B605" t="s">
+        <v>268</v>
+      </c>
       <c r="C605" t="s">
         <v>156</v>
       </c>
@@ -6264,6 +6630,9 @@
       <c r="A606">
         <v>21799135</v>
       </c>
+      <c r="B606" t="s">
+        <v>261</v>
+      </c>
       <c r="C606" t="s">
         <v>35</v>
       </c>
@@ -6272,6 +6641,9 @@
       <c r="A607">
         <v>21799238</v>
       </c>
+      <c r="B607" t="s">
+        <v>259</v>
+      </c>
       <c r="C607" t="s">
         <v>157</v>
       </c>
@@ -6280,26 +6652,41 @@
       <c r="A608">
         <v>21799272</v>
       </c>
+      <c r="B608" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>21799277</v>
       </c>
+      <c r="B609" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>21799279</v>
       </c>
+      <c r="B610" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>21799289</v>
       </c>
+      <c r="B611" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>21799283</v>
       </c>
+      <c r="B612" t="s">
+        <v>261</v>
+      </c>
       <c r="C612" t="s">
         <v>82</v>
       </c>
@@ -6308,11 +6695,17 @@
       <c r="A613">
         <v>21799300</v>
       </c>
+      <c r="B613" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>21799305</v>
       </c>
+      <c r="B614" t="s">
+        <v>42</v>
+      </c>
       <c r="C614" t="s">
         <v>158</v>
       </c>
@@ -6321,6 +6714,9 @@
       <c r="A615">
         <v>21799312</v>
       </c>
+      <c r="B615" t="s">
+        <v>42</v>
+      </c>
       <c r="C615" t="s">
         <v>14</v>
       </c>
@@ -6329,46 +6725,73 @@
       <c r="A616">
         <v>21799314</v>
       </c>
+      <c r="B616" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>21799316</v>
       </c>
+      <c r="B617" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>21799410</v>
       </c>
+      <c r="B618" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>21799411</v>
       </c>
+      <c r="B619" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>21799657</v>
       </c>
+      <c r="B620" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>21799939</v>
       </c>
+      <c r="B621" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>21800171</v>
       </c>
+      <c r="B622" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>21800662</v>
       </c>
+      <c r="B623" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>21800917</v>
       </c>
+      <c r="B624" t="s">
+        <v>42</v>
+      </c>
       <c r="C624" t="s">
         <v>14</v>
       </c>
@@ -6377,31 +6800,49 @@
       <c r="A625">
         <v>21800922</v>
       </c>
+      <c r="B625" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>21800926</v>
       </c>
+      <c r="B626" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>21800920</v>
       </c>
+      <c r="B627" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>21800934</v>
       </c>
+      <c r="B628" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>21800938</v>
       </c>
+      <c r="B629" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>21800982</v>
       </c>
+      <c r="B630" t="s">
+        <v>261</v>
+      </c>
       <c r="C630" t="s">
         <v>159</v>
       </c>
@@ -6410,6 +6851,9 @@
       <c r="A631">
         <v>21800984</v>
       </c>
+      <c r="B631" t="s">
+        <v>259</v>
+      </c>
       <c r="C631" t="s">
         <v>160</v>
       </c>
@@ -6418,16 +6862,25 @@
       <c r="A632">
         <v>21800985</v>
       </c>
+      <c r="B632" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>21801027</v>
       </c>
+      <c r="B633" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>21801068</v>
       </c>
+      <c r="B634" t="s">
+        <v>261</v>
+      </c>
       <c r="C634" t="s">
         <v>161</v>
       </c>
@@ -6436,11 +6889,17 @@
       <c r="A635">
         <v>21801561</v>
       </c>
+      <c r="B635" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>21801814</v>
       </c>
+      <c r="B636" t="s">
+        <v>259</v>
+      </c>
       <c r="C636" t="s">
         <v>162</v>
       </c>
@@ -6449,6 +6908,9 @@
       <c r="A637">
         <v>21802171</v>
       </c>
+      <c r="B637" t="s">
+        <v>261</v>
+      </c>
       <c r="C637" t="s">
         <v>163</v>
       </c>
@@ -6457,26 +6919,41 @@
       <c r="A638">
         <v>21802174</v>
       </c>
+      <c r="B638" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>21802348</v>
       </c>
+      <c r="B639" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>21802350</v>
       </c>
+      <c r="B640" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>21802353</v>
       </c>
+      <c r="B641" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>21802611</v>
       </c>
+      <c r="B642" t="s">
+        <v>261</v>
+      </c>
       <c r="C642" t="s">
         <v>164</v>
       </c>
@@ -6485,11 +6962,17 @@
       <c r="A643">
         <v>21802638</v>
       </c>
+      <c r="B643" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>21802649</v>
       </c>
+      <c r="B644" t="s">
+        <v>42</v>
+      </c>
       <c r="C644" t="s">
         <v>165</v>
       </c>
@@ -6498,6 +6981,9 @@
       <c r="A645">
         <v>21802651</v>
       </c>
+      <c r="B645" t="s">
+        <v>42</v>
+      </c>
       <c r="C645" t="s">
         <v>166</v>
       </c>
@@ -6506,11 +6992,17 @@
       <c r="A646">
         <v>21802658</v>
       </c>
+      <c r="B646" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>21802659</v>
       </c>
+      <c r="B647" t="s">
+        <v>42</v>
+      </c>
       <c r="C647" t="s">
         <v>167</v>
       </c>
@@ -6519,16 +7011,25 @@
       <c r="A648">
         <v>21802662</v>
       </c>
+      <c r="B648" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>21802665</v>
       </c>
+      <c r="B649" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>21802666</v>
       </c>
+      <c r="B650" t="s">
+        <v>42</v>
+      </c>
       <c r="C650" t="s">
         <v>42</v>
       </c>
@@ -6537,16 +7038,25 @@
       <c r="A651">
         <v>21802669</v>
       </c>
+      <c r="B651" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>21803025</v>
       </c>
+      <c r="B652" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>21803494</v>
       </c>
+      <c r="B653" t="s">
+        <v>266</v>
+      </c>
       <c r="C653" t="s">
         <v>168</v>
       </c>
@@ -6555,6 +7065,9 @@
       <c r="A654">
         <v>21804247</v>
       </c>
+      <c r="B654" t="s">
+        <v>261</v>
+      </c>
       <c r="C654" t="s">
         <v>169</v>
       </c>
@@ -6563,26 +7076,41 @@
       <c r="A655">
         <v>21804343</v>
       </c>
+      <c r="B655" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>21804348</v>
       </c>
+      <c r="B656" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>21804364</v>
       </c>
+      <c r="B657" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>21804387</v>
       </c>
+      <c r="B658" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>21804390</v>
       </c>
+      <c r="B659" t="s">
+        <v>42</v>
+      </c>
       <c r="C659" t="s">
         <v>68</v>
       </c>
@@ -6591,6 +7119,9 @@
       <c r="A660">
         <v>21804391</v>
       </c>
+      <c r="B660" t="s">
+        <v>42</v>
+      </c>
       <c r="C660" t="s">
         <v>170</v>
       </c>
@@ -6599,21 +7130,33 @@
       <c r="A661">
         <v>21804392</v>
       </c>
+      <c r="B661" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>21804968</v>
       </c>
+      <c r="B662" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>21805409</v>
       </c>
+      <c r="B663" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>21805701</v>
       </c>
+      <c r="B664" t="s">
+        <v>259</v>
+      </c>
       <c r="C664" t="s">
         <v>171</v>
       </c>
@@ -6622,21 +7165,33 @@
       <c r="A665">
         <v>21805726</v>
       </c>
+      <c r="B665" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>21805731</v>
       </c>
+      <c r="B666" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>21805733</v>
       </c>
+      <c r="B667" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>21805742</v>
       </c>
+      <c r="B668" t="s">
+        <v>42</v>
+      </c>
       <c r="C668" t="s">
         <v>172</v>
       </c>
@@ -6645,16 +7200,25 @@
       <c r="A669">
         <v>21805757</v>
       </c>
+      <c r="B669" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>21805776</v>
       </c>
+      <c r="B670" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>21805788</v>
       </c>
+      <c r="B671" t="s">
+        <v>259</v>
+      </c>
       <c r="C671" t="s">
         <v>173</v>
       </c>
@@ -6663,36 +7227,57 @@
       <c r="A672">
         <v>21805789</v>
       </c>
+      <c r="B672" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>21805792</v>
       </c>
+      <c r="B673" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>21806347</v>
       </c>
+      <c r="B674" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>21805412</v>
       </c>
+      <c r="B675" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>21806806</v>
       </c>
+      <c r="B676" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>21807083</v>
       </c>
+      <c r="B677" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>21807411</v>
       </c>
+      <c r="B678" t="s">
+        <v>42</v>
+      </c>
       <c r="C678" t="s">
         <v>174</v>
       </c>
@@ -6701,6 +7286,9 @@
       <c r="A679">
         <v>21807414</v>
       </c>
+      <c r="B679" t="s">
+        <v>268</v>
+      </c>
       <c r="C679" t="s">
         <v>175</v>
       </c>
@@ -6709,11 +7297,17 @@
       <c r="A680">
         <v>21807644</v>
       </c>
+      <c r="B680" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>21807857</v>
       </c>
+      <c r="B681" t="s">
+        <v>261</v>
+      </c>
       <c r="C681" t="s">
         <v>176</v>
       </c>
@@ -6722,6 +7316,9 @@
       <c r="A682">
         <v>21808165</v>
       </c>
+      <c r="B682" t="s">
+        <v>261</v>
+      </c>
       <c r="C682" t="s">
         <v>177</v>
       </c>
@@ -6730,6 +7327,9 @@
       <c r="A683">
         <v>21808179</v>
       </c>
+      <c r="B683" t="s">
+        <v>42</v>
+      </c>
       <c r="C683" t="s">
         <v>14</v>
       </c>
@@ -6738,11 +7338,17 @@
       <c r="A684">
         <v>21808500</v>
       </c>
+      <c r="B684" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>21808750</v>
       </c>
+      <c r="B685" t="s">
+        <v>259</v>
+      </c>
       <c r="C685" t="s">
         <v>178</v>
       </c>
@@ -6751,21 +7357,33 @@
       <c r="A686">
         <v>21808755</v>
       </c>
+      <c r="B686" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>21808983</v>
       </c>
+      <c r="B687" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>21809359</v>
       </c>
+      <c r="B688" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>21809360</v>
       </c>
+      <c r="B689" t="s">
+        <v>42</v>
+      </c>
       <c r="C689" t="s">
         <v>179</v>
       </c>
@@ -6774,21 +7392,33 @@
       <c r="A690">
         <v>21809366</v>
       </c>
+      <c r="B690" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>21809376</v>
       </c>
+      <c r="B691" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>21809397</v>
       </c>
+      <c r="B692" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>21809399</v>
       </c>
+      <c r="B693" t="s">
+        <v>214</v>
+      </c>
       <c r="C693" t="s">
         <v>180</v>
       </c>
@@ -6797,16 +7427,25 @@
       <c r="A694">
         <v>21809948</v>
       </c>
+      <c r="B694" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>21810123</v>
       </c>
+      <c r="B695" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>21810127</v>
       </c>
+      <c r="B696" t="s">
+        <v>266</v>
+      </c>
       <c r="C696" t="s">
         <v>181</v>
       </c>
@@ -6815,21 +7454,33 @@
       <c r="A697">
         <v>21810196</v>
       </c>
+      <c r="B697" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>21810650</v>
       </c>
+      <c r="B698" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>21810667</v>
       </c>
+      <c r="B699" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>21810670</v>
       </c>
+      <c r="B700" t="s">
+        <v>42</v>
+      </c>
       <c r="C700" t="s">
         <v>182</v>
       </c>
@@ -6838,6 +7489,9 @@
       <c r="A701">
         <v>21810677</v>
       </c>
+      <c r="B701" t="s">
+        <v>260</v>
+      </c>
       <c r="C701" t="s">
         <v>183</v>
       </c>
@@ -6846,6 +7500,9 @@
       <c r="A702">
         <v>21810686</v>
       </c>
+      <c r="B702" t="s">
+        <v>42</v>
+      </c>
       <c r="C702" t="s">
         <v>184</v>
       </c>
@@ -6854,11 +7511,17 @@
       <c r="A703">
         <v>21810681</v>
       </c>
+      <c r="B703" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>21810751</v>
       </c>
+      <c r="B704" t="s">
+        <v>42</v>
+      </c>
       <c r="C704" t="s">
         <v>185</v>
       </c>
@@ -6867,6 +7530,9 @@
       <c r="A705">
         <v>21810766</v>
       </c>
+      <c r="B705" t="s">
+        <v>42</v>
+      </c>
       <c r="C705" t="s">
         <v>8</v>
       </c>
@@ -6875,46 +7541,73 @@
       <c r="A706">
         <v>21810788</v>
       </c>
+      <c r="B706" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>21810861</v>
       </c>
+      <c r="B707" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>21810878</v>
       </c>
+      <c r="B708" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>21810905</v>
       </c>
+      <c r="B709" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>21810906</v>
       </c>
+      <c r="B710" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>21810916</v>
       </c>
+      <c r="B711" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>21810946</v>
       </c>
+      <c r="B712" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>21811219</v>
       </c>
+      <c r="B713" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>21811246</v>
       </c>
+      <c r="B714" t="s">
+        <v>42</v>
+      </c>
       <c r="C714" t="s">
         <v>31</v>
       </c>
@@ -6923,11 +7616,17 @@
       <c r="A715">
         <v>21811474</v>
       </c>
+      <c r="B715" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>21812035</v>
       </c>
+      <c r="B716" t="s">
+        <v>266</v>
+      </c>
       <c r="C716" t="s">
         <v>186</v>
       </c>
@@ -6936,26 +7635,41 @@
       <c r="A717">
         <v>21814982</v>
       </c>
+      <c r="B717" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>21816033</v>
       </c>
+      <c r="B718" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>21816770</v>
       </c>
+      <c r="B719" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>21816783</v>
       </c>
+      <c r="B720" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>21816786</v>
       </c>
+      <c r="B721" t="s">
+        <v>42</v>
+      </c>
       <c r="C721" t="s">
         <v>36</v>
       </c>
@@ -6964,6 +7678,9 @@
       <c r="A722">
         <v>21817040</v>
       </c>
+      <c r="B722" t="s">
+        <v>261</v>
+      </c>
       <c r="C722" t="s">
         <v>187</v>
       </c>
@@ -6972,6 +7689,9 @@
       <c r="A723">
         <v>21817041</v>
       </c>
+      <c r="B723" t="s">
+        <v>214</v>
+      </c>
       <c r="C723" t="s">
         <v>188</v>
       </c>
@@ -6980,11 +7700,17 @@
       <c r="A724">
         <v>21817067</v>
       </c>
+      <c r="B724" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>21817069</v>
       </c>
+      <c r="B725" t="s">
+        <v>261</v>
+      </c>
       <c r="C725" t="s">
         <v>189</v>
       </c>
@@ -6993,11 +7719,17 @@
       <c r="A726">
         <v>21817312</v>
       </c>
+      <c r="B726" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>21817792</v>
       </c>
+      <c r="B727" t="s">
+        <v>42</v>
+      </c>
       <c r="C727" t="s">
         <v>190</v>
       </c>
@@ -7006,16 +7738,25 @@
       <c r="A728">
         <v>21818030</v>
       </c>
+      <c r="B728" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>21819303</v>
       </c>
+      <c r="B729" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>21820509</v>
       </c>
+      <c r="B730" t="s">
+        <v>259</v>
+      </c>
       <c r="C730" t="s">
         <v>191</v>
       </c>
@@ -7024,46 +7765,73 @@
       <c r="A731">
         <v>21821452</v>
       </c>
+      <c r="B731" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>21821461</v>
       </c>
+      <c r="B732" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>21821970</v>
       </c>
+      <c r="B733" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>21822225</v>
       </c>
+      <c r="B734" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>21822238</v>
       </c>
+      <c r="B735" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>21822543</v>
       </c>
+      <c r="B736" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>21823756</v>
       </c>
+      <c r="B737" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>21823781</v>
       </c>
+      <c r="B738" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>21823798</v>
       </c>
+      <c r="B739" t="s">
+        <v>259</v>
+      </c>
       <c r="C739" t="s">
         <v>173</v>
       </c>
@@ -7072,11 +7840,17 @@
       <c r="A740">
         <v>21823818</v>
       </c>
+      <c r="B740" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>21825330</v>
       </c>
+      <c r="B741" t="s">
+        <v>214</v>
+      </c>
       <c r="C741" t="s">
         <v>180</v>
       </c>
@@ -7085,11 +7859,17 @@
       <c r="A742">
         <v>21825345</v>
       </c>
+      <c r="B742" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>21825358</v>
       </c>
+      <c r="B743" t="s">
+        <v>42</v>
+      </c>
       <c r="C743" t="s">
         <v>192</v>
       </c>
@@ -7098,11 +7878,17 @@
       <c r="A744">
         <v>21825389</v>
       </c>
+      <c r="B744" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>21825397</v>
       </c>
+      <c r="B745" t="s">
+        <v>42</v>
+      </c>
       <c r="C745" t="s">
         <v>14</v>
       </c>
@@ -7111,6 +7897,9 @@
       <c r="A746">
         <v>21825406</v>
       </c>
+      <c r="B746" t="s">
+        <v>261</v>
+      </c>
       <c r="C746" t="s">
         <v>193</v>
       </c>
@@ -7119,6 +7908,9 @@
       <c r="A747">
         <v>21825423</v>
       </c>
+      <c r="B747" t="s">
+        <v>42</v>
+      </c>
       <c r="C747" t="s">
         <v>194</v>
       </c>
@@ -7127,6 +7919,9 @@
       <c r="A748">
         <v>21825430</v>
       </c>
+      <c r="B748" t="s">
+        <v>42</v>
+      </c>
       <c r="C748" t="s">
         <v>195</v>
       </c>
@@ -7135,36 +7930,57 @@
       <c r="A749">
         <v>21826945</v>
       </c>
+      <c r="B749" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>21826956</v>
       </c>
+      <c r="B750" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>21826962</v>
       </c>
+      <c r="B751" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>21826991</v>
       </c>
+      <c r="B752" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>21826992</v>
       </c>
+      <c r="B753" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>21827004</v>
       </c>
+      <c r="B754" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>21827013</v>
       </c>
+      <c r="B755" t="s">
+        <v>261</v>
+      </c>
       <c r="C755" t="s">
         <v>196</v>
       </c>
@@ -7173,11 +7989,17 @@
       <c r="A756">
         <v>21827808</v>
       </c>
+      <c r="B756" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>21828314</v>
       </c>
+      <c r="B757" t="s">
+        <v>42</v>
+      </c>
       <c r="C757" t="s">
         <v>8</v>
       </c>
@@ -7186,6 +8008,9 @@
       <c r="A758">
         <v>21828319</v>
       </c>
+      <c r="B758" t="s">
+        <v>42</v>
+      </c>
       <c r="C758" t="s">
         <v>197</v>
       </c>
@@ -7194,16 +8019,25 @@
       <c r="A759">
         <v>21828323</v>
       </c>
+      <c r="B759" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>21828328</v>
       </c>
+      <c r="B760" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>21828339</v>
       </c>
+      <c r="B761" t="s">
+        <v>266</v>
+      </c>
       <c r="C761" t="s">
         <v>198</v>
       </c>
@@ -7212,16 +8046,25 @@
       <c r="A762">
         <v>21828345</v>
       </c>
+      <c r="B762" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>21828348</v>
       </c>
+      <c r="B763" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>21828360</v>
       </c>
+      <c r="B764" t="s">
+        <v>42</v>
+      </c>
       <c r="C764" t="s">
         <v>8</v>
       </c>
@@ -7230,6 +8073,9 @@
       <c r="A765">
         <v>21829612</v>
       </c>
+      <c r="B765" t="s">
+        <v>42</v>
+      </c>
       <c r="C765" t="s">
         <v>199</v>
       </c>
@@ -7238,6 +8084,9 @@
       <c r="A766">
         <v>21830116</v>
       </c>
+      <c r="B766" t="s">
+        <v>259</v>
+      </c>
       <c r="C766" t="s">
         <v>200</v>
       </c>
@@ -7246,41 +8095,65 @@
       <c r="A767">
         <v>21830691</v>
       </c>
+      <c r="B767" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>21830703</v>
       </c>
+      <c r="B768" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>21830713</v>
       </c>
+      <c r="B769" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>21832214</v>
       </c>
+      <c r="B770" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>21832233</v>
       </c>
+      <c r="B771" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>21832234</v>
       </c>
+      <c r="B772" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>21832482</v>
       </c>
+      <c r="B773" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>21832730</v>
       </c>
+      <c r="B774" t="s">
+        <v>266</v>
+      </c>
       <c r="C774" t="s">
         <v>201</v>
       </c>
@@ -7289,56 +8162,89 @@
       <c r="A775">
         <v>21832980</v>
       </c>
+      <c r="B775" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>21833233</v>
       </c>
+      <c r="B776" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>21833286</v>
       </c>
+      <c r="B777" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>21833356</v>
       </c>
+      <c r="B778" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>21834156</v>
       </c>
+      <c r="B779" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>21834229</v>
       </c>
+      <c r="B780" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>21834235</v>
       </c>
+      <c r="B781" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>21834252</v>
       </c>
+      <c r="B782" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>21834253</v>
       </c>
+      <c r="B783" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>21834255</v>
       </c>
+      <c r="B784" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>21834580</v>
       </c>
+      <c r="B785" t="s">
+        <v>266</v>
+      </c>
       <c r="C785" t="s">
         <v>202</v>
       </c>
@@ -7347,31 +8253,49 @@
       <c r="A786">
         <v>21834588</v>
       </c>
+      <c r="B786" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>21834707</v>
       </c>
+      <c r="B787" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>21807645</v>
       </c>
+      <c r="B788" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>21834779</v>
       </c>
+      <c r="B789" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>21834796</v>
       </c>
+      <c r="B790" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>21834808</v>
       </c>
+      <c r="B791" t="s">
+        <v>259</v>
+      </c>
       <c r="C791" t="s">
         <v>203</v>
       </c>
@@ -7380,36 +8304,57 @@
       <c r="A792">
         <v>21834831</v>
       </c>
+      <c r="B792" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>21834891</v>
       </c>
+      <c r="B793" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>21834907</v>
       </c>
+      <c r="B794" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>21834996</v>
       </c>
+      <c r="B795" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>21835006</v>
       </c>
+      <c r="B796" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>21835021</v>
       </c>
+      <c r="B797" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>21835063</v>
       </c>
+      <c r="B798" t="s">
+        <v>261</v>
+      </c>
       <c r="C798" t="s">
         <v>204</v>
       </c>
@@ -7418,16 +8363,25 @@
       <c r="A799">
         <v>21835088</v>
       </c>
+      <c r="B799" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>21835129</v>
       </c>
+      <c r="B800" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>21835157</v>
       </c>
+      <c r="B801" t="s">
+        <v>261</v>
+      </c>
       <c r="C801" t="s">
         <v>205</v>
       </c>
@@ -7436,21 +8390,33 @@
       <c r="A802">
         <v>21835160</v>
       </c>
+      <c r="B802" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>21835182</v>
       </c>
+      <c r="B803" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>21835210</v>
       </c>
+      <c r="B804" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>21835248</v>
       </c>
+      <c r="B805" t="s">
+        <v>42</v>
+      </c>
       <c r="C805" t="s">
         <v>37</v>
       </c>
@@ -7459,11 +8425,17 @@
       <c r="A806">
         <v>21835261</v>
       </c>
+      <c r="B806" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>21793808</v>
       </c>
+      <c r="B807" t="s">
+        <v>42</v>
+      </c>
       <c r="C807" t="s">
         <v>4</v>
       </c>
@@ -7472,6 +8444,9 @@
       <c r="A808">
         <v>21835308</v>
       </c>
+      <c r="B808" t="s">
+        <v>259</v>
+      </c>
       <c r="C808" t="s">
         <v>206</v>
       </c>
@@ -7480,6 +8455,9 @@
       <c r="A809">
         <v>21835328</v>
       </c>
+      <c r="B809" t="s">
+        <v>42</v>
+      </c>
       <c r="C809" t="s">
         <v>207</v>
       </c>
@@ -7488,6 +8466,9 @@
       <c r="A810">
         <v>21835365</v>
       </c>
+      <c r="B810" t="s">
+        <v>261</v>
+      </c>
       <c r="C810" t="s">
         <v>208</v>
       </c>
@@ -7496,11 +8477,17 @@
       <c r="A811">
         <v>21835385</v>
       </c>
+      <c r="B811" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>21835407</v>
       </c>
+      <c r="B812" t="s">
+        <v>42</v>
+      </c>
       <c r="C812" t="s">
         <v>42</v>
       </c>
@@ -7509,11 +8496,17 @@
       <c r="A813">
         <v>21835418</v>
       </c>
+      <c r="B813" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>21835427</v>
       </c>
+      <c r="B814" t="s">
+        <v>266</v>
+      </c>
       <c r="C814" t="s">
         <v>209</v>
       </c>
@@ -7522,6 +8515,9 @@
       <c r="A815">
         <v>21835439</v>
       </c>
+      <c r="B815" t="s">
+        <v>42</v>
+      </c>
       <c r="C815" t="s">
         <v>4</v>
       </c>
@@ -7530,6 +8526,9 @@
       <c r="A816">
         <v>21835515</v>
       </c>
+      <c r="B816" t="s">
+        <v>259</v>
+      </c>
       <c r="C816" t="s">
         <v>210</v>
       </c>
@@ -7538,11 +8537,17 @@
       <c r="A817">
         <v>21835528</v>
       </c>
+      <c r="B817" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>21835556</v>
       </c>
+      <c r="B818" t="s">
+        <v>42</v>
+      </c>
       <c r="C818" t="s">
         <v>4</v>
       </c>
@@ -7551,6 +8556,9 @@
       <c r="A819">
         <v>21835583</v>
       </c>
+      <c r="B819" t="s">
+        <v>42</v>
+      </c>
       <c r="C819" t="s">
         <v>4</v>
       </c>
@@ -7559,11 +8567,17 @@
       <c r="A820">
         <v>21835604</v>
       </c>
+      <c r="B820" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>21835621</v>
       </c>
+      <c r="B821" t="s">
+        <v>266</v>
+      </c>
       <c r="C821" t="s">
         <v>211</v>
       </c>
@@ -7572,11 +8586,17 @@
       <c r="A822">
         <v>21835669</v>
       </c>
+      <c r="B822" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>21835714</v>
       </c>
+      <c r="B823" t="s">
+        <v>271</v>
+      </c>
       <c r="C823" t="s">
         <v>63</v>
       </c>
@@ -7585,26 +8605,41 @@
       <c r="A824">
         <v>21835849</v>
       </c>
+      <c r="B824" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>21835861</v>
       </c>
+      <c r="B825" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>21835867</v>
       </c>
+      <c r="B826" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>21835869</v>
       </c>
+      <c r="B827" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>21835988</v>
       </c>
+      <c r="B828" t="s">
+        <v>259</v>
+      </c>
       <c r="C828" t="s">
         <v>212</v>
       </c>
@@ -7613,16 +8648,25 @@
       <c r="A829">
         <v>21836888</v>
       </c>
+      <c r="B829" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>21836911</v>
       </c>
+      <c r="B830" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>21836916</v>
       </c>
+      <c r="B831" t="s">
+        <v>42</v>
+      </c>
       <c r="C831" t="s">
         <v>213</v>
       </c>
@@ -7631,41 +8675,65 @@
       <c r="A832">
         <v>21836921</v>
       </c>
+      <c r="B832" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>21836922</v>
       </c>
+      <c r="B833" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>21837677</v>
       </c>
+      <c r="B834" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>21838126</v>
       </c>
+      <c r="B835" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>21838181</v>
       </c>
+      <c r="B836" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>21838552</v>
       </c>
+      <c r="B837" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>21838562</v>
       </c>
+      <c r="B838" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>21838598</v>
       </c>
+      <c r="B839" t="s">
+        <v>42</v>
+      </c>
       <c r="C839" t="s">
         <v>84</v>
       </c>
@@ -7674,6 +8742,9 @@
       <c r="A840">
         <v>21838722</v>
       </c>
+      <c r="B840" t="s">
+        <v>214</v>
+      </c>
       <c r="C840" t="s">
         <v>214</v>
       </c>
@@ -7682,21 +8753,33 @@
       <c r="A841">
         <v>21838728</v>
       </c>
+      <c r="B841" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>21838749</v>
       </c>
+      <c r="B842" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>21838753</v>
       </c>
+      <c r="B843" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>21838773</v>
       </c>
+      <c r="B844" t="s">
+        <v>42</v>
+      </c>
       <c r="C844" t="s">
         <v>215</v>
       </c>
@@ -7705,6 +8788,9 @@
       <c r="A845">
         <v>21838778</v>
       </c>
+      <c r="B845" t="s">
+        <v>42</v>
+      </c>
       <c r="C845" t="s">
         <v>216</v>
       </c>
@@ -7713,46 +8799,73 @@
       <c r="A846">
         <v>21838792</v>
       </c>
+      <c r="B846" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>21838907</v>
       </c>
+      <c r="B847" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>21838959</v>
       </c>
+      <c r="B848" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>21838971</v>
       </c>
+      <c r="B849" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>21839001</v>
       </c>
+      <c r="B850" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>21839098</v>
       </c>
+      <c r="B851" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>21839099</v>
       </c>
+      <c r="B852" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>21839268</v>
       </c>
+      <c r="B853" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>21839285</v>
       </c>
+      <c r="B854" t="s">
+        <v>42</v>
+      </c>
       <c r="C854" t="s">
         <v>4</v>
       </c>
@@ -7761,16 +8874,25 @@
       <c r="A855">
         <v>21839313</v>
       </c>
+      <c r="B855" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>21839320</v>
       </c>
+      <c r="B856" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>21839431</v>
       </c>
+      <c r="B857" t="s">
+        <v>42</v>
+      </c>
       <c r="C857" t="s">
         <v>217</v>
       </c>
@@ -7779,6 +8901,9 @@
       <c r="A858">
         <v>21839444</v>
       </c>
+      <c r="B858" t="s">
+        <v>42</v>
+      </c>
       <c r="C858" t="s">
         <v>8</v>
       </c>
@@ -7787,21 +8912,33 @@
       <c r="A859">
         <v>21839447</v>
       </c>
+      <c r="B859" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>21839452</v>
       </c>
+      <c r="B860" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>21839469</v>
       </c>
+      <c r="B861" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>21839456</v>
       </c>
+      <c r="B862" t="s">
+        <v>214</v>
+      </c>
       <c r="C862" t="s">
         <v>180</v>
       </c>
@@ -7810,6 +8947,9 @@
       <c r="A863">
         <v>21839482</v>
       </c>
+      <c r="B863" t="s">
+        <v>42</v>
+      </c>
       <c r="C863" t="s">
         <v>218</v>
       </c>
@@ -7818,11 +8958,17 @@
       <c r="A864">
         <v>21839490</v>
       </c>
+      <c r="B864" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>21839798</v>
       </c>
+      <c r="B865" t="s">
+        <v>266</v>
+      </c>
       <c r="C865" t="s">
         <v>219</v>
       </c>
@@ -7831,46 +8977,73 @@
       <c r="A866">
         <v>21840400</v>
       </c>
+      <c r="B866" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>21840651</v>
       </c>
+      <c r="B867" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>21841028</v>
       </c>
+      <c r="B868" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>21841174</v>
       </c>
+      <c r="B869" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>21841181</v>
       </c>
+      <c r="B870" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>21841751</v>
       </c>
+      <c r="B871" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>21842156</v>
       </c>
+      <c r="B872" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>21835824</v>
       </c>
+      <c r="B873" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>21842833</v>
       </c>
+      <c r="B874" t="s">
+        <v>261</v>
+      </c>
       <c r="C874" t="s">
         <v>220</v>
       </c>
@@ -7879,6 +9052,9 @@
       <c r="A875">
         <v>21844699</v>
       </c>
+      <c r="B875" t="s">
+        <v>42</v>
+      </c>
       <c r="C875" t="s">
         <v>14</v>
       </c>
@@ -7887,16 +9063,25 @@
       <c r="A876">
         <v>21844831</v>
       </c>
+      <c r="B876" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>21846083</v>
       </c>
+      <c r="B877" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>21846518</v>
       </c>
+      <c r="B878" t="s">
+        <v>42</v>
+      </c>
       <c r="C878" t="s">
         <v>122</v>
       </c>
@@ -7905,16 +9090,25 @@
       <c r="A879">
         <v>21846548</v>
       </c>
+      <c r="B879" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>21846576</v>
       </c>
+      <c r="B880" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>21846979</v>
       </c>
+      <c r="B881" t="s">
+        <v>42</v>
+      </c>
       <c r="C881" t="s">
         <v>221</v>
       </c>
@@ -7923,6 +9117,9 @@
       <c r="A882">
         <v>21846980</v>
       </c>
+      <c r="B882" t="s">
+        <v>266</v>
+      </c>
       <c r="C882" t="s">
         <v>222</v>
       </c>
@@ -7931,6 +9128,9 @@
       <c r="A883">
         <v>21846987</v>
       </c>
+      <c r="B883" t="s">
+        <v>42</v>
+      </c>
       <c r="C883" t="s">
         <v>223</v>
       </c>
@@ -7939,41 +9139,65 @@
       <c r="A884">
         <v>21846997</v>
       </c>
+      <c r="B884" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>21847019</v>
       </c>
+      <c r="B885" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>21847006</v>
       </c>
+      <c r="B886" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>21847040</v>
       </c>
+      <c r="B887" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>21847054</v>
       </c>
+      <c r="B888" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>21847085</v>
       </c>
+      <c r="B889" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>21847088</v>
       </c>
+      <c r="B890" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>21847220</v>
       </c>
+      <c r="B891" t="s">
+        <v>42</v>
+      </c>
       <c r="C891" t="s">
         <v>4</v>
       </c>
@@ -7982,6 +9206,9 @@
       <c r="A892">
         <v>21847238</v>
       </c>
+      <c r="B892" t="s">
+        <v>42</v>
+      </c>
       <c r="C892" t="s">
         <v>4</v>
       </c>
@@ -7990,6 +9217,9 @@
       <c r="A893">
         <v>21847295</v>
       </c>
+      <c r="B893" t="s">
+        <v>42</v>
+      </c>
       <c r="C893" t="s">
         <v>224</v>
       </c>
@@ -7998,11 +9228,17 @@
       <c r="A894">
         <v>21847344</v>
       </c>
+      <c r="B894" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>21847457</v>
       </c>
+      <c r="B895" t="s">
+        <v>42</v>
+      </c>
       <c r="C895" t="s">
         <v>225</v>
       </c>
@@ -8011,11 +9247,17 @@
       <c r="A896">
         <v>21847527</v>
       </c>
+      <c r="B896" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>21847587</v>
       </c>
+      <c r="B897" t="s">
+        <v>42</v>
+      </c>
       <c r="C897" t="s">
         <v>4</v>
       </c>
@@ -8024,11 +9266,17 @@
       <c r="A898">
         <v>21847610</v>
       </c>
+      <c r="B898" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>21847646</v>
       </c>
+      <c r="B899" t="s">
+        <v>42</v>
+      </c>
       <c r="C899" t="s">
         <v>226</v>
       </c>
@@ -8037,36 +9285,57 @@
       <c r="A900">
         <v>21847645</v>
       </c>
+      <c r="B900" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>21847651</v>
       </c>
+      <c r="B901" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>21847671</v>
       </c>
+      <c r="B902" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>21847674</v>
       </c>
+      <c r="B903" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>21847676</v>
       </c>
+      <c r="B904" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>21847729</v>
       </c>
+      <c r="B905" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>21847818</v>
       </c>
+      <c r="B906" t="s">
+        <v>261</v>
+      </c>
       <c r="C906" t="s">
         <v>227</v>
       </c>
@@ -8075,6 +9344,9 @@
       <c r="A907">
         <v>21847823</v>
       </c>
+      <c r="B907" t="s">
+        <v>42</v>
+      </c>
       <c r="C907" t="s">
         <v>228</v>
       </c>
@@ -8083,6 +9355,9 @@
       <c r="A908">
         <v>21847879</v>
       </c>
+      <c r="B908" t="s">
+        <v>42</v>
+      </c>
       <c r="C908" t="s">
         <v>229</v>
       </c>
@@ -8091,16 +9366,25 @@
       <c r="A909">
         <v>21847883</v>
       </c>
+      <c r="B909" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>21847886</v>
       </c>
+      <c r="B910" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>21847898</v>
       </c>
+      <c r="B911" t="s">
+        <v>266</v>
+      </c>
       <c r="C911" t="s">
         <v>230</v>
       </c>
@@ -8109,6 +9393,9 @@
       <c r="A912">
         <v>21847915</v>
       </c>
+      <c r="B912" t="s">
+        <v>266</v>
+      </c>
       <c r="C912" t="s">
         <v>231</v>
       </c>
@@ -8117,11 +9404,17 @@
       <c r="A913">
         <v>21847970</v>
       </c>
+      <c r="B913" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>21847989</v>
       </c>
+      <c r="B914" t="s">
+        <v>42</v>
+      </c>
       <c r="C914" t="s">
         <v>232</v>
       </c>
@@ -8130,6 +9423,9 @@
       <c r="A915">
         <v>21847993</v>
       </c>
+      <c r="B915" t="s">
+        <v>42</v>
+      </c>
       <c r="C915" t="s">
         <v>4</v>
       </c>
@@ -8138,6 +9434,9 @@
       <c r="A916">
         <v>21839801</v>
       </c>
+      <c r="B916" t="s">
+        <v>42</v>
+      </c>
       <c r="C916" t="s">
         <v>37</v>
       </c>
@@ -8146,6 +9445,9 @@
       <c r="A917">
         <v>21848022</v>
       </c>
+      <c r="B917" t="s">
+        <v>42</v>
+      </c>
       <c r="C917" t="s">
         <v>233</v>
       </c>
@@ -8154,16 +9456,25 @@
       <c r="A918">
         <v>21848053</v>
       </c>
+      <c r="B918" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>21848102</v>
       </c>
+      <c r="B919" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>21848132</v>
       </c>
+      <c r="B920" t="s">
+        <v>42</v>
+      </c>
       <c r="C920" t="s">
         <v>234</v>
       </c>
@@ -8172,11 +9483,17 @@
       <c r="A921">
         <v>21848150</v>
       </c>
+      <c r="B921" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>21848157</v>
       </c>
+      <c r="B922" t="s">
+        <v>42</v>
+      </c>
       <c r="C922" t="s">
         <v>51</v>
       </c>
@@ -8185,6 +9502,9 @@
       <c r="A923">
         <v>21848294</v>
       </c>
+      <c r="B923" t="s">
+        <v>266</v>
+      </c>
       <c r="C923" t="s">
         <v>235</v>
       </c>
@@ -8193,11 +9513,17 @@
       <c r="A924">
         <v>21848341</v>
       </c>
+      <c r="B924" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>21848428</v>
       </c>
+      <c r="B925" t="s">
+        <v>261</v>
+      </c>
       <c r="C925" t="s">
         <v>236</v>
       </c>
@@ -8205,6 +9531,9 @@
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>21848828</v>
+      </c>
+      <c r="B926" t="s">
+        <v>261</v>
       </c>
       <c r="C926" t="s">
         <v>237</v>
@@ -8882,10 +10211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AAA06E-E534-9B4E-A28A-3F96626837C8}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8910,6 +10239,26 @@
         <v>260</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
